--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1394219.826753987</v>
+        <v>-1396775.009482517</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.2989701645118</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>99.59933623926702</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>6.882988967594205</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.451161327941325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>320.1002441188291</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>72.49249126472888</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>243.5879073424595</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,7 +950,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>112.0730068366015</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>45.10683729225598</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>134.924991254547</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.360523736604</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.15159618305966</v>
+        <v>47.29196656812051</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>82.4729044930091</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272871</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576164</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>115.2707447515134</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301539</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>142.8873577254024</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>201.7490817309711</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3676,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
         <v>56.98118882652582</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1133.32083113111</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>764.3583141906979</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D2" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>952.3490077683463</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>783.4128248404394</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>633.2961854281036</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>485.3830918457105</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>338.4931443478001</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>170.7903077225191</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1126.372197774137</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W4" t="n">
-        <v>1126.372197774137</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="X4" t="n">
-        <v>1126.372197774137</v>
+        <v>1354.790051742116</v>
       </c>
       <c r="Y4" t="n">
-        <v>1126.372197774137</v>
+        <v>1133.997472598586</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1935.366530930991</v>
+        <v>1358.502474286819</v>
       </c>
       <c r="C5" t="n">
-        <v>1566.40401399058</v>
+        <v>989.5399573464072</v>
       </c>
       <c r="D5" t="n">
-        <v>1566.40401399058</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1180.615761392335</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>769.6298566027278</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>354.5574064477243</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,13 +4580,13 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930991</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.9304417640992</v>
+        <v>663.2461408939903</v>
       </c>
       <c r="C7" t="n">
-        <v>556.9942588361923</v>
+        <v>494.3099579660834</v>
       </c>
       <c r="D7" t="n">
-        <v>406.8776194238566</v>
+        <v>494.3099579660834</v>
       </c>
       <c r="E7" t="n">
-        <v>258.9645258414635</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>112.0745783435531</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>112.0745783435531</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.361036635886</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.371485737869</v>
+        <v>1065.68718486776</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.5789065943389</v>
+        <v>844.89460572423</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.584566587187</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609172</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265602</v>
+        <v>2729.809727313141</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995487</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2377.041072043026</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4902,7 +4902,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4911,16 +4911,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.7468436324427</v>
+        <v>844.5803025616257</v>
       </c>
       <c r="C10" t="n">
-        <v>237.8106607045358</v>
+        <v>675.6441196337188</v>
       </c>
       <c r="D10" t="n">
-        <v>237.8106607045358</v>
+        <v>525.527480221383</v>
       </c>
       <c r="E10" t="n">
-        <v>89.8975671221427</v>
+        <v>525.527480221383</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4990,22 +4990,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.594608541191</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.594608541191</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.17743850423</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062126</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.3953084626825</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,19 +5115,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327656</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5227,22 +5227,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603203</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741514</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704553</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806536</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630054</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5434,19 +5434,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797756</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279804</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2263.482284124065</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.880819147006</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1754.805592491204</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.121104285317</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5492,34 +5492,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,40 +6236,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,13 +6774,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6838,31 +6838,31 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7078,28 +7078,28 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311319</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>209.4348714989687</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>265.6735555317405</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>137.8720259467266</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>243.6864819958867</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.61374049979055</v>
+        <v>62.63359754465149</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22799,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>51.01985704486094</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>84.77391660561874</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>65.75554125013117</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>57.22910392194086</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>22.63678056686641</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43.72409101823372</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,19 +24412,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>6.257951202385186</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>119.4047645948081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136398.8395883683</v>
+        <v>136398.8395883682</v>
       </c>
       <c r="C2" t="n">
         <v>163211.2270999458</v>
@@ -26320,10 +26320,10 @@
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
+        <v>161429.3199380012</v>
+      </c>
+      <c r="F2" t="n">
         <v>161429.3199380013</v>
-      </c>
-      <c r="F2" t="n">
-        <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
         <v>161429.3199380012</v>
@@ -26341,19 +26341,19 @@
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="M2" t="n">
-        <v>164208.3539728568</v>
-      </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12820.12292715299</v>
+        <v>12820.12292715303</v>
       </c>
       <c r="C4" t="n">
-        <v>89338.26297207286</v>
+        <v>89338.26297207284</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818164</v>
+        <v>92183.89891818176</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,16 +26433,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="I4" t="n">
+        <v>12996.86414683038</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683045</v>
       </c>
       <c r="L4" t="n">
         <v>20987.7234099239</v>
@@ -26454,10 +26454,10 @@
         <v>20987.7234099239</v>
       </c>
       <c r="O4" t="n">
+        <v>20987.72340992392</v>
+      </c>
+      <c r="P4" t="n">
         <v>20987.7234099239</v>
-      </c>
-      <c r="P4" t="n">
-        <v>20987.72340992391</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1313099.969627771</v>
+        <v>-1313447.588557577</v>
       </c>
       <c r="C6" t="n">
-        <v>-34060.97643352034</v>
+        <v>-34073.44051943188</v>
       </c>
       <c r="D6" t="n">
-        <v>-35909.48550671832</v>
+        <v>-35909.48550671838</v>
       </c>
       <c r="E6" t="n">
-        <v>-278102.5358400911</v>
+        <v>-278137.2737655273</v>
       </c>
       <c r="F6" t="n">
-        <v>47309.92596726363</v>
+        <v>47275.18804182805</v>
       </c>
       <c r="G6" t="n">
-        <v>47309.92596726365</v>
+        <v>47275.18804182798</v>
       </c>
       <c r="H6" t="n">
-        <v>47309.92596726365</v>
+        <v>47275.18804182801</v>
       </c>
       <c r="I6" t="n">
-        <v>47309.92596726368</v>
+        <v>47275.18804182801</v>
       </c>
       <c r="J6" t="n">
-        <v>-170221.2764300138</v>
+        <v>-170256.0143554494</v>
       </c>
       <c r="K6" t="n">
-        <v>47309.9259672636</v>
+        <v>47275.18804182799</v>
       </c>
       <c r="L6" t="n">
-        <v>20628.79671538569</v>
+        <v>20628.79671538572</v>
       </c>
       <c r="M6" t="n">
-        <v>-44998.51322649419</v>
+        <v>-44998.51322649443</v>
       </c>
       <c r="N6" t="n">
+        <v>40056.51470901744</v>
+      </c>
+      <c r="O6" t="n">
+        <v>40056.51470901736</v>
+      </c>
+      <c r="P6" t="n">
         <v>40056.51470901747</v>
-      </c>
-      <c r="O6" t="n">
-        <v>40056.51470901744</v>
-      </c>
-      <c r="P6" t="n">
-        <v>40056.51470901744</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,16 +26802,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.12010116369</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>282.1905503559541</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>34.36095580996766</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>99.64817762206479</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>192.8272672155879</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.8774149194496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>122.2694518398716</v>
+        <v>98.12908145481074</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28512,16 +28512,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1.131184035330079e-12</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191325</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060466</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,13 +37151,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
